--- a/Vehicle Inventory List.xlsx
+++ b/Vehicle Inventory List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC9C45E-58B2-4005-98A7-E7F163C9CD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC83EEA-ACD2-4D85-9D88-94A3BDFA8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="828" windowWidth="23016" windowHeight="11736" xr2:uid="{FB31FF4C-D13D-423D-B46A-A63FC1C0A455}"/>
+    <workbookView xWindow="4560" yWindow="1260" windowWidth="16776" windowHeight="11208" xr2:uid="{FB31FF4C-D13D-423D-B46A-A63FC1C0A455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,6 +592,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64D83BD1-0174-405F-B4FF-6CEAC32AC7A2}" name="VehicleInventory" displayName="VehicleInventory" ref="A1:E101" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E101" xr:uid="{64D83BD1-0174-405F-B4FF-6CEAC32AC7A2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A9513BBA-2339-4C7B-A3EB-71B4A6DD33A5}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{5E7B6D17-8853-4787-ABBD-B7AFE2B7ECF5}" name="Car Make"/>
+    <tableColumn id="3" xr3:uid="{ED3B8B7A-37EA-45B6-AC6A-AE79AE260CEB}" name="Car VIN"/>
+    <tableColumn id="4" xr3:uid="{D340266F-E9A5-4E2F-9164-85216FCD587E}" name="Color"/>
+    <tableColumn id="5" xr3:uid="{C7335908-3A4F-43BD-BA3E-8C6D122E7215}" name="Cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,11 +907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5506437-136B-4E00-A39F-C5F8C62F6790}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2599,5 +2635,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>